--- a/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD49262-CAFB-47A3-BB74-D4B337FCF255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B3FBD3-8B5B-4574-ADB3-D62F626DCF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,14 +29,13 @@
     <sheet name="10" sheetId="14" r:id="rId14"/>
     <sheet name="9" sheetId="15" r:id="rId15"/>
     <sheet name="8" sheetId="16" r:id="rId16"/>
-    <sheet name="7" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="41">
   <si>
     <t>Columns on Logic</t>
   </si>
@@ -118,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.438
 Method:                 Least Squares   F-statistic:                     19.13
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           6.81e-55
-Time:                        23:10:10   Log-Likelihood:                -174.64
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.81e-55
+Time:                        20:51:43   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             397.3
 Df Residuals:                     513   BIC:                             500.1
 Df Model:                          23                                         
@@ -166,8 +165,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.439
 Method:                 Least Squares   F-statistic:                     20.04
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.50e-55
-Time:                        23:10:10   Log-Likelihood:                -174.64
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.50e-55
+Time:                        20:51:43   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             395.3
 Df Residuals:                     514   BIC:                             493.9
 Df Model:                          22                                         
@@ -213,8 +212,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.440
 Method:                 Least Squares   F-statistic:                     21.03
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           3.24e-56
-Time:                        23:10:10   Log-Likelihood:                -174.64
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.24e-56
+Time:                        20:51:43   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             393.3
 Df Residuals:                     515   BIC:                             487.6
 Df Model:                          21                                         
@@ -259,8 +258,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     22.12
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           6.84e-57
-Time:                        23:10:10   Log-Likelihood:                -174.65
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.84e-57
+Time:                        20:51:43   Log-Likelihood:                -174.65
 No. Observations:                 537   AIC:                             391.3
 Df Residuals:                     516   BIC:                             481.3
 Df Model:                          20                                         
@@ -304,8 +303,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.442
 Method:                 Least Squares   F-statistic:                     23.33
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.41e-57
-Time:                        23:10:10   Log-Likelihood:                -174.67
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.41e-57
+Time:                        20:51:43   Log-Likelihood:                -174.67
 No. Observations:                 537   AIC:                             389.3
 Df Residuals:                     517   BIC:                             475.1
 Df Model:                          19                                         
@@ -348,8 +347,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.443
 Method:                 Least Squares   F-statistic:                     24.67
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.88e-58
-Time:                        23:10:10   Log-Likelihood:                -174.70
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.88e-58
+Time:                        20:51:43   Log-Likelihood:                -174.70
 No. Observations:                 537   AIC:                             387.4
 Df Residuals:                     518   BIC:                             468.8
 Df Model:                          18                                         
@@ -391,8 +390,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.444
 Method:                 Least Squares   F-statistic:                     26.15
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           5.89e-59
-Time:                        23:10:10   Log-Likelihood:                -174.76
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.89e-59
+Time:                        20:51:43   Log-Likelihood:                -174.76
 No. Observations:                 537   AIC:                             385.5
 Df Residuals:                     519   BIC:                             462.7
 Df Model:                          17                                         
@@ -433,8 +432,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     27.82
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.22e-59
-Time:                        23:10:11   Log-Likelihood:                -174.88
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.22e-59
+Time:                        20:51:43   Log-Likelihood:                -174.88
 No. Observations:                 537   AIC:                             383.8
 Df Residuals:                     520   BIC:                             456.6
 Df Model:                          16                                         
@@ -474,8 +473,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     29.71
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.37e-60
-Time:                        23:10:11   Log-Likelihood:                -174.96
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.37e-60
+Time:                        20:51:43   Log-Likelihood:                -174.96
 No. Observations:                 537   AIC:                             381.9
 Df Residuals:                     521   BIC:                             450.5
 Df Model:                          15                                         
@@ -514,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     31.84
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.97e-61
-Time:                        23:10:11   Log-Likelihood:                -175.16
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.97e-61
+Time:                        20:51:44   Log-Likelihood:                -175.16
 No. Observations:                 537   AIC:                             380.3
 Df Residuals:                     522   BIC:                             444.6
 Df Model:                          14                                         
@@ -553,8 +552,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.460
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     34.26
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.13e-61
-Time:                        23:10:11   Log-Likelihood:                -175.49
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.13e-61
+Time:                        20:51:44   Log-Likelihood:                -175.49
 No. Observations:                 537   AIC:                             379.0
 Df Residuals:                     523   BIC:                             439.0
 Df Model:                          13                                         
@@ -591,8 +590,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.459
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     37.05
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.86e-62
-Time:                        23:10:11   Log-Likelihood:                -175.97
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.86e-62
+Time:                        20:51:44   Log-Likelihood:                -175.97
 No. Observations:                 537   AIC:                             377.9
 Df Residuals:                     524   BIC:                             433.6
 Df Model:                          12                                         
@@ -628,8 +627,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.457
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     40.22
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           9.61e-63
-Time:                        23:10:11   Log-Likelihood:                -176.79
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           9.61e-63
+Time:                        20:51:44   Log-Likelihood:                -176.79
 No. Observations:                 537   AIC:                             377.6
 Df Residuals:                     525   BIC:                             429.0
 Df Model:                          11                                         
@@ -664,8 +663,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.456
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     44.13
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.39e-63
-Time:                        23:10:11   Log-Likelihood:                -177.34
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.39e-63
+Time:                        20:51:44   Log-Likelihood:                -177.34
 No. Observations:                 537   AIC:                             376.7
 Df Residuals:                     526   BIC:                             423.8
 Df Model:                          10                                         
@@ -699,8 +698,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.454
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     48.66
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.03e-63
-Time:                        23:10:11   Log-Likelihood:                -178.51
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.03e-63
+Time:                        20:51:44   Log-Likelihood:                -178.51
 No. Observations:                 537   AIC:                             377.0
 Df Residuals:                     527   BIC:                             419.9
 Df Model:                           9                                         
@@ -730,44 +729,11 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.451
-Model:                            OLS   Adj. R-squared:                  0.443
-Method:                 Least Squares   F-statistic:                     54.26
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.68e-64
-Time:                        23:10:11   Log-Likelihood:                -179.80
-No. Observations:                 537   AIC:                             377.6
-Df Residuals:                     528   BIC:                             416.2
-Df Model:                           8                                         
-Covariance Type:            nonrobust                                         
-================================================================================
-                   coef    std err          t      P&gt;|t|      [0.025      0.975]
---------------------------------------------------------------------------------
-Ones             0.8597      0.034     25.619      0.000       0.794       0.926
-S1_GRD_4TO49    -0.0521      0.012     -4.342      0.000      -0.076      -0.029
-S1_GRD_5TO59    -0.0314      0.013     -2.452      0.015      -0.056      -0.006
-S2_CVL          -0.0312      0.019     -1.640      0.102      -0.069       0.006
-S2_GRD_3TO39    -0.0447      0.017     -2.655      0.008      -0.078      -0.012
-S2_GRD_4TO49    -0.0666      0.014     -4.647      0.000      -0.095      -0.038
-S2_GRD_5TO59    -0.0469      0.015     -3.220      0.001      -0.076      -0.018
-S2_GRD_6TO7     -0.0428      0.023     -1.844      0.066      -0.088       0.003
-S2_BEST_GRD     -0.0055      0.001     -4.416      0.000      -0.008      -0.003
-==============================================================================
-Omnibus:                       34.789   Durbin-Watson:                   1.923
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               51.228
-Skew:                           0.496   Prob(JB):                     7.51e-12
-Kurtosis:                       4.142   Cond. No.                         118.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.448
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     61.43
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.16e-64
-Time:                        23:10:11   Log-Likelihood:                -181.17
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.16e-64
+Time:                        20:51:44   Log-Likelihood:                -181.17
 No. Observations:                 537   AIC:                             378.3
 Df Residuals:                     529   BIC:                             412.6
 Df Model:                           7                                         
@@ -1750,66 +1716,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="408" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="395.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B3FBD3-8B5B-4574-ADB3-D62F626DCF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6993A0-5D15-43EC-BD7A-21ACA4327FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 Model:                            OLS   Adj. R-squared:                  0.438
 Method:                 Least Squares   F-statistic:                     19.13
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.81e-55
-Time:                        20:51:43   Log-Likelihood:                -174.64
+Time:                        20:59:45   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             397.3
 Df Residuals:                     513   BIC:                             500.1
 Df Model:                          23                                         
@@ -166,7 +166,7 @@
 Model:                            OLS   Adj. R-squared:                  0.439
 Method:                 Least Squares   F-statistic:                     20.04
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.50e-55
-Time:                        20:51:43   Log-Likelihood:                -174.64
+Time:                        20:59:45   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             395.3
 Df Residuals:                     514   BIC:                             493.9
 Df Model:                          22                                         
@@ -213,7 +213,7 @@
 Model:                            OLS   Adj. R-squared:                  0.440
 Method:                 Least Squares   F-statistic:                     21.03
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.24e-56
-Time:                        20:51:43   Log-Likelihood:                -174.64
+Time:                        20:59:45   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             393.3
 Df Residuals:                     515   BIC:                             487.6
 Df Model:                          21                                         
@@ -259,7 +259,7 @@
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     22.12
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.84e-57
-Time:                        20:51:43   Log-Likelihood:                -174.65
+Time:                        20:59:45   Log-Likelihood:                -174.65
 No. Observations:                 537   AIC:                             391.3
 Df Residuals:                     516   BIC:                             481.3
 Df Model:                          20                                         
@@ -304,7 +304,7 @@
 Model:                            OLS   Adj. R-squared:                  0.442
 Method:                 Least Squares   F-statistic:                     23.33
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.41e-57
-Time:                        20:51:43   Log-Likelihood:                -174.67
+Time:                        20:59:45   Log-Likelihood:                -174.67
 No. Observations:                 537   AIC:                             389.3
 Df Residuals:                     517   BIC:                             475.1
 Df Model:                          19                                         
@@ -348,7 +348,7 @@
 Model:                            OLS   Adj. R-squared:                  0.443
 Method:                 Least Squares   F-statistic:                     24.67
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.88e-58
-Time:                        20:51:43   Log-Likelihood:                -174.70
+Time:                        20:59:45   Log-Likelihood:                -174.70
 No. Observations:                 537   AIC:                             387.4
 Df Residuals:                     518   BIC:                             468.8
 Df Model:                          18                                         
@@ -391,7 +391,7 @@
 Model:                            OLS   Adj. R-squared:                  0.444
 Method:                 Least Squares   F-statistic:                     26.15
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.89e-59
-Time:                        20:51:43   Log-Likelihood:                -174.76
+Time:                        20:59:45   Log-Likelihood:                -174.76
 No. Observations:                 537   AIC:                             385.5
 Df Residuals:                     519   BIC:                             462.7
 Df Model:                          17                                         
@@ -433,7 +433,7 @@
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     27.82
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.22e-59
-Time:                        20:51:43   Log-Likelihood:                -174.88
+Time:                        20:59:45   Log-Likelihood:                -174.88
 No. Observations:                 537   AIC:                             383.8
 Df Residuals:                     520   BIC:                             456.6
 Df Model:                          16                                         
@@ -474,7 +474,7 @@
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     29.71
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.37e-60
-Time:                        20:51:43   Log-Likelihood:                -174.96
+Time:                        20:59:45   Log-Likelihood:                -174.96
 No. Observations:                 537   AIC:                             381.9
 Df Residuals:                     521   BIC:                             450.5
 Df Model:                          15                                         
@@ -514,7 +514,7 @@
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     31.84
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.97e-61
-Time:                        20:51:44   Log-Likelihood:                -175.16
+Time:                        20:59:45   Log-Likelihood:                -175.16
 No. Observations:                 537   AIC:                             380.3
 Df Residuals:                     522   BIC:                             444.6
 Df Model:                          14                                         
@@ -553,7 +553,7 @@
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     34.26
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.13e-61
-Time:                        20:51:44   Log-Likelihood:                -175.49
+Time:                        20:59:45   Log-Likelihood:                -175.49
 No. Observations:                 537   AIC:                             379.0
 Df Residuals:                     523   BIC:                             439.0
 Df Model:                          13                                         
@@ -591,7 +591,7 @@
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     37.05
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.86e-62
-Time:                        20:51:44   Log-Likelihood:                -175.97
+Time:                        20:59:45   Log-Likelihood:                -175.97
 No. Observations:                 537   AIC:                             377.9
 Df Residuals:                     524   BIC:                             433.6
 Df Model:                          12                                         
@@ -628,7 +628,7 @@
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     40.22
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           9.61e-63
-Time:                        20:51:44   Log-Likelihood:                -176.79
+Time:                        20:59:45   Log-Likelihood:                -176.79
 No. Observations:                 537   AIC:                             377.6
 Df Residuals:                     525   BIC:                             429.0
 Df Model:                          11                                         
@@ -664,7 +664,7 @@
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     44.13
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.39e-63
-Time:                        20:51:44   Log-Likelihood:                -177.34
+Time:                        20:59:45   Log-Likelihood:                -177.34
 No. Observations:                 537   AIC:                             376.7
 Df Residuals:                     526   BIC:                             423.8
 Df Model:                          10                                         
@@ -699,7 +699,7 @@
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     48.66
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.03e-63
-Time:                        20:51:44   Log-Likelihood:                -178.51
+Time:                        20:59:45   Log-Likelihood:                -178.51
 No. Observations:                 537   AIC:                             377.0
 Df Residuals:                     527   BIC:                             419.9
 Df Model:                           9                                         
@@ -733,7 +733,7 @@
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     61.43
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.16e-64
-Time:                        20:51:44   Log-Likelihood:                -181.17
+Time:                        20:59:45   Log-Likelihood:                -181.17
 No. Observations:                 537   AIC:                             378.3
 Df Residuals:                     529   BIC:                             412.6
 Df Model:                           7                                         

--- a/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6993A0-5D15-43EC-BD7A-21ACA4327FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66AC3ED-DC45-4B51-8697-54197646B4E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.438
 Method:                 Least Squares   F-statistic:                     19.13
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.81e-55
-Time:                        20:59:45   Log-Likelihood:                -174.64
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.81e-55
+Time:                        16:11:14   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             397.3
 Df Residuals:                     513   BIC:                             500.1
 Df Model:                          23                                         
@@ -165,8 +165,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.439
 Method:                 Least Squares   F-statistic:                     20.04
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.50e-55
-Time:                        20:59:45   Log-Likelihood:                -174.64
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.50e-55
+Time:                        16:11:14   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             395.3
 Df Residuals:                     514   BIC:                             493.9
 Df Model:                          22                                         
@@ -212,8 +212,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.440
 Method:                 Least Squares   F-statistic:                     21.03
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.24e-56
-Time:                        20:59:45   Log-Likelihood:                -174.64
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.24e-56
+Time:                        16:11:14   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             393.3
 Df Residuals:                     515   BIC:                             487.6
 Df Model:                          21                                         
@@ -258,8 +258,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     22.12
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.84e-57
-Time:                        20:59:45   Log-Likelihood:                -174.65
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.84e-57
+Time:                        16:11:14   Log-Likelihood:                -174.65
 No. Observations:                 537   AIC:                             391.3
 Df Residuals:                     516   BIC:                             481.3
 Df Model:                          20                                         
@@ -303,8 +303,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.442
 Method:                 Least Squares   F-statistic:                     23.33
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.41e-57
-Time:                        20:59:45   Log-Likelihood:                -174.67
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.41e-57
+Time:                        16:11:14   Log-Likelihood:                -174.67
 No. Observations:                 537   AIC:                             389.3
 Df Residuals:                     517   BIC:                             475.1
 Df Model:                          19                                         
@@ -347,8 +347,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.443
 Method:                 Least Squares   F-statistic:                     24.67
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.88e-58
-Time:                        20:59:45   Log-Likelihood:                -174.70
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.88e-58
+Time:                        16:11:14   Log-Likelihood:                -174.70
 No. Observations:                 537   AIC:                             387.4
 Df Residuals:                     518   BIC:                             468.8
 Df Model:                          18                                         
@@ -390,8 +390,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.444
 Method:                 Least Squares   F-statistic:                     26.15
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.89e-59
-Time:                        20:59:45   Log-Likelihood:                -174.76
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.89e-59
+Time:                        16:11:14   Log-Likelihood:                -174.76
 No. Observations:                 537   AIC:                             385.5
 Df Residuals:                     519   BIC:                             462.7
 Df Model:                          17                                         
@@ -432,8 +432,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     27.82
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.22e-59
-Time:                        20:59:45   Log-Likelihood:                -174.88
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.22e-59
+Time:                        16:11:14   Log-Likelihood:                -174.88
 No. Observations:                 537   AIC:                             383.8
 Df Residuals:                     520   BIC:                             456.6
 Df Model:                          16                                         
@@ -473,8 +473,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     29.71
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.37e-60
-Time:                        20:59:45   Log-Likelihood:                -174.96
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.37e-60
+Time:                        16:11:14   Log-Likelihood:                -174.96
 No. Observations:                 537   AIC:                             381.9
 Df Residuals:                     521   BIC:                             450.5
 Df Model:                          15                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     31.84
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.97e-61
-Time:                        20:59:45   Log-Likelihood:                -175.16
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.97e-61
+Time:                        16:11:14   Log-Likelihood:                -175.16
 No. Observations:                 537   AIC:                             380.3
 Df Residuals:                     522   BIC:                             444.6
 Df Model:                          14                                         
@@ -552,8 +552,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.460
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     34.26
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.13e-61
-Time:                        20:59:45   Log-Likelihood:                -175.49
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.13e-61
+Time:                        16:11:14   Log-Likelihood:                -175.49
 No. Observations:                 537   AIC:                             379.0
 Df Residuals:                     523   BIC:                             439.0
 Df Model:                          13                                         
@@ -590,8 +590,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.459
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     37.05
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.86e-62
-Time:                        20:59:45   Log-Likelihood:                -175.97
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.86e-62
+Time:                        16:11:14   Log-Likelihood:                -175.97
 No. Observations:                 537   AIC:                             377.9
 Df Residuals:                     524   BIC:                             433.6
 Df Model:                          12                                         
@@ -627,8 +627,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.457
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     40.22
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           9.61e-63
-Time:                        20:59:45   Log-Likelihood:                -176.79
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           9.61e-63
+Time:                        16:11:14   Log-Likelihood:                -176.79
 No. Observations:                 537   AIC:                             377.6
 Df Residuals:                     525   BIC:                             429.0
 Df Model:                          11                                         
@@ -663,8 +663,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.456
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     44.13
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.39e-63
-Time:                        20:59:45   Log-Likelihood:                -177.34
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.39e-63
+Time:                        16:11:14   Log-Likelihood:                -177.34
 No. Observations:                 537   AIC:                             376.7
 Df Residuals:                     526   BIC:                             423.8
 Df Model:                          10                                         
@@ -698,8 +698,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.454
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     48.66
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.03e-63
-Time:                        20:59:45   Log-Likelihood:                -178.51
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.03e-63
+Time:                        16:11:14   Log-Likelihood:                -178.51
 No. Observations:                 537   AIC:                             377.0
 Df Residuals:                     527   BIC:                             419.9
 Df Model:                           9                                         
@@ -732,8 +732,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.448
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     61.43
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.16e-64
-Time:                        20:59:45   Log-Likelihood:                -181.17
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.16e-64
+Time:                        16:11:14   Log-Likelihood:                -181.17
 No. Observations:                 537   AIC:                             378.3
 Df Residuals:                     529   BIC:                             412.6
 Df Model:                           7                                         

--- a/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66AC3ED-DC45-4B51-8697-54197646B4E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D718278-F304-4414-9C45-A7B43EEB160E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.438
 Method:                 Least Squares   F-statistic:                     19.13
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.81e-55
-Time:                        16:11:14   Log-Likelihood:                -174.64
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.81e-55
+Time:                        23:18:52   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             397.3
 Df Residuals:                     513   BIC:                             500.1
 Df Model:                          23                                         
@@ -165,8 +165,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.439
 Method:                 Least Squares   F-statistic:                     20.04
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.50e-55
-Time:                        16:11:14   Log-Likelihood:                -174.64
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.50e-55
+Time:                        23:18:52   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             395.3
 Df Residuals:                     514   BIC:                             493.9
 Df Model:                          22                                         
@@ -212,8 +212,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.440
 Method:                 Least Squares   F-statistic:                     21.03
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.24e-56
-Time:                        16:11:14   Log-Likelihood:                -174.64
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.24e-56
+Time:                        23:18:52   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             393.3
 Df Residuals:                     515   BIC:                             487.6
 Df Model:                          21                                         
@@ -258,8 +258,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     22.12
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.84e-57
-Time:                        16:11:14   Log-Likelihood:                -174.65
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.84e-57
+Time:                        23:18:52   Log-Likelihood:                -174.65
 No. Observations:                 537   AIC:                             391.3
 Df Residuals:                     516   BIC:                             481.3
 Df Model:                          20                                         
@@ -303,8 +303,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.442
 Method:                 Least Squares   F-statistic:                     23.33
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.41e-57
-Time:                        16:11:14   Log-Likelihood:                -174.67
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.41e-57
+Time:                        23:18:52   Log-Likelihood:                -174.67
 No. Observations:                 537   AIC:                             389.3
 Df Residuals:                     517   BIC:                             475.1
 Df Model:                          19                                         
@@ -347,8 +347,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.443
 Method:                 Least Squares   F-statistic:                     24.67
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.88e-58
-Time:                        16:11:14   Log-Likelihood:                -174.70
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.88e-58
+Time:                        23:18:52   Log-Likelihood:                -174.70
 No. Observations:                 537   AIC:                             387.4
 Df Residuals:                     518   BIC:                             468.8
 Df Model:                          18                                         
@@ -390,8 +390,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.444
 Method:                 Least Squares   F-statistic:                     26.15
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.89e-59
-Time:                        16:11:14   Log-Likelihood:                -174.76
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.89e-59
+Time:                        23:18:52   Log-Likelihood:                -174.76
 No. Observations:                 537   AIC:                             385.5
 Df Residuals:                     519   BIC:                             462.7
 Df Model:                          17                                         
@@ -432,8 +432,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     27.82
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.22e-59
-Time:                        16:11:14   Log-Likelihood:                -174.88
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.22e-59
+Time:                        23:18:52   Log-Likelihood:                -174.88
 No. Observations:                 537   AIC:                             383.8
 Df Residuals:                     520   BIC:                             456.6
 Df Model:                          16                                         
@@ -473,8 +473,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     29.71
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.37e-60
-Time:                        16:11:14   Log-Likelihood:                -174.96
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.37e-60
+Time:                        23:18:52   Log-Likelihood:                -174.96
 No. Observations:                 537   AIC:                             381.9
 Df Residuals:                     521   BIC:                             450.5
 Df Model:                          15                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     31.84
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.97e-61
-Time:                        16:11:14   Log-Likelihood:                -175.16
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.97e-61
+Time:                        23:18:52   Log-Likelihood:                -175.16
 No. Observations:                 537   AIC:                             380.3
 Df Residuals:                     522   BIC:                             444.6
 Df Model:                          14                                         
@@ -552,8 +552,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.460
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     34.26
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.13e-61
-Time:                        16:11:14   Log-Likelihood:                -175.49
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.13e-61
+Time:                        23:18:52   Log-Likelihood:                -175.49
 No. Observations:                 537   AIC:                             379.0
 Df Residuals:                     523   BIC:                             439.0
 Df Model:                          13                                         
@@ -590,8 +590,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.459
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     37.05
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.86e-62
-Time:                        16:11:14   Log-Likelihood:                -175.97
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.86e-62
+Time:                        23:18:53   Log-Likelihood:                -175.97
 No. Observations:                 537   AIC:                             377.9
 Df Residuals:                     524   BIC:                             433.6
 Df Model:                          12                                         
@@ -627,8 +627,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.457
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     40.22
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           9.61e-63
-Time:                        16:11:14   Log-Likelihood:                -176.79
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           9.61e-63
+Time:                        23:18:53   Log-Likelihood:                -176.79
 No. Observations:                 537   AIC:                             377.6
 Df Residuals:                     525   BIC:                             429.0
 Df Model:                          11                                         
@@ -663,8 +663,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.456
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     44.13
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.39e-63
-Time:                        16:11:14   Log-Likelihood:                -177.34
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.39e-63
+Time:                        23:18:53   Log-Likelihood:                -177.34
 No. Observations:                 537   AIC:                             376.7
 Df Residuals:                     526   BIC:                             423.8
 Df Model:                          10                                         
@@ -698,8 +698,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.454
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     48.66
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.03e-63
-Time:                        16:11:14   Log-Likelihood:                -178.51
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.03e-63
+Time:                        23:18:53   Log-Likelihood:                -178.51
 No. Observations:                 537   AIC:                             377.0
 Df Residuals:                     527   BIC:                             419.9
 Df Model:                           9                                         
@@ -732,8 +732,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.448
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     61.43
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.16e-64
-Time:                        16:11:14   Log-Likelihood:                -181.17
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.16e-64
+Time:                        23:18:53   Log-Likelihood:                -181.17
 No. Observations:                 537   AIC:                             378.3
 Df Residuals:                     529   BIC:                             412.6
 Df Model:                           7                                         

--- a/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D718278-F304-4414-9C45-A7B43EEB160E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4724E4B-0E85-471B-B02D-AC7A60A1D3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23" sheetId="1" r:id="rId1"/>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.438
 Method:                 Least Squares   F-statistic:                     19.13
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.81e-55
-Time:                        23:18:52   Log-Likelihood:                -174.64
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.81e-55
+Time:                        20:48:45   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             397.3
 Df Residuals:                     513   BIC:                             500.1
 Df Model:                          23                                         
@@ -165,8 +165,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.439
 Method:                 Least Squares   F-statistic:                     20.04
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.50e-55
-Time:                        23:18:52   Log-Likelihood:                -174.64
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.50e-55
+Time:                        20:48:45   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             395.3
 Df Residuals:                     514   BIC:                             493.9
 Df Model:                          22                                         
@@ -212,8 +212,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.440
 Method:                 Least Squares   F-statistic:                     21.03
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.24e-56
-Time:                        23:18:52   Log-Likelihood:                -174.64
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.24e-56
+Time:                        20:48:45   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             393.3
 Df Residuals:                     515   BIC:                             487.6
 Df Model:                          21                                         
@@ -258,8 +258,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     22.12
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.84e-57
-Time:                        23:18:52   Log-Likelihood:                -174.65
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.84e-57
+Time:                        20:48:45   Log-Likelihood:                -174.65
 No. Observations:                 537   AIC:                             391.3
 Df Residuals:                     516   BIC:                             481.3
 Df Model:                          20                                         
@@ -303,8 +303,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.442
 Method:                 Least Squares   F-statistic:                     23.33
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.41e-57
-Time:                        23:18:52   Log-Likelihood:                -174.67
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.41e-57
+Time:                        20:48:45   Log-Likelihood:                -174.67
 No. Observations:                 537   AIC:                             389.3
 Df Residuals:                     517   BIC:                             475.1
 Df Model:                          19                                         
@@ -347,8 +347,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.443
 Method:                 Least Squares   F-statistic:                     24.67
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.88e-58
-Time:                        23:18:52   Log-Likelihood:                -174.70
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.88e-58
+Time:                        20:48:45   Log-Likelihood:                -174.70
 No. Observations:                 537   AIC:                             387.4
 Df Residuals:                     518   BIC:                             468.8
 Df Model:                          18                                         
@@ -390,8 +390,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.444
 Method:                 Least Squares   F-statistic:                     26.15
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.89e-59
-Time:                        23:18:52   Log-Likelihood:                -174.76
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.89e-59
+Time:                        20:48:45   Log-Likelihood:                -174.76
 No. Observations:                 537   AIC:                             385.5
 Df Residuals:                     519   BIC:                             462.7
 Df Model:                          17                                         
@@ -432,8 +432,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     27.82
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.22e-59
-Time:                        23:18:52   Log-Likelihood:                -174.88
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.22e-59
+Time:                        20:48:45   Log-Likelihood:                -174.88
 No. Observations:                 537   AIC:                             383.8
 Df Residuals:                     520   BIC:                             456.6
 Df Model:                          16                                         
@@ -473,8 +473,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     29.71
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.37e-60
-Time:                        23:18:52   Log-Likelihood:                -174.96
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.37e-60
+Time:                        20:48:45   Log-Likelihood:                -174.96
 No. Observations:                 537   AIC:                             381.9
 Df Residuals:                     521   BIC:                             450.5
 Df Model:                          15                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     31.84
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.97e-61
-Time:                        23:18:52   Log-Likelihood:                -175.16
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.97e-61
+Time:                        20:48:45   Log-Likelihood:                -175.16
 No. Observations:                 537   AIC:                             380.3
 Df Residuals:                     522   BIC:                             444.6
 Df Model:                          14                                         
@@ -552,8 +552,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.460
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     34.26
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.13e-61
-Time:                        23:18:52   Log-Likelihood:                -175.49
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.13e-61
+Time:                        20:48:45   Log-Likelihood:                -175.49
 No. Observations:                 537   AIC:                             379.0
 Df Residuals:                     523   BIC:                             439.0
 Df Model:                          13                                         
@@ -590,8 +590,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.459
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     37.05
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.86e-62
-Time:                        23:18:53   Log-Likelihood:                -175.97
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.86e-62
+Time:                        20:48:45   Log-Likelihood:                -175.97
 No. Observations:                 537   AIC:                             377.9
 Df Residuals:                     524   BIC:                             433.6
 Df Model:                          12                                         
@@ -627,8 +627,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.457
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     40.22
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           9.61e-63
-Time:                        23:18:53   Log-Likelihood:                -176.79
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           9.61e-63
+Time:                        20:48:45   Log-Likelihood:                -176.79
 No. Observations:                 537   AIC:                             377.6
 Df Residuals:                     525   BIC:                             429.0
 Df Model:                          11                                         
@@ -663,8 +663,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.456
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     44.13
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.39e-63
-Time:                        23:18:53   Log-Likelihood:                -177.34
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.39e-63
+Time:                        20:48:45   Log-Likelihood:                -177.34
 No. Observations:                 537   AIC:                             376.7
 Df Residuals:                     526   BIC:                             423.8
 Df Model:                          10                                         
@@ -698,8 +698,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.454
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     48.66
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.03e-63
-Time:                        23:18:53   Log-Likelihood:                -178.51
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.03e-63
+Time:                        20:48:45   Log-Likelihood:                -178.51
 No. Observations:                 537   AIC:                             377.0
 Df Residuals:                     527   BIC:                             419.9
 Df Model:                           9                                         
@@ -732,8 +732,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.448
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     61.43
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.16e-64
-Time:                        23:18:53   Log-Likelihood:                -181.17
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.16e-64
+Time:                        20:48:45   Log-Likelihood:                -181.17
 No. Observations:                 537   AIC:                             378.3
 Df Residuals:                     529   BIC:                             412.6
 Df Model:                           7                                         

--- a/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4724E4B-0E85-471B-B02D-AC7A60A1D3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB69DD16-1471-4B8E-AF06-4C90A0E0CBBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.438
 Method:                 Least Squares   F-statistic:                     19.13
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.81e-55
-Time:                        20:48:45   Log-Likelihood:                -174.64
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.81e-55
+Time:                        21:22:23   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             397.3
 Df Residuals:                     513   BIC:                             500.1
 Df Model:                          23                                         
@@ -165,8 +165,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.439
 Method:                 Least Squares   F-statistic:                     20.04
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.50e-55
-Time:                        20:48:45   Log-Likelihood:                -174.64
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.50e-55
+Time:                        21:22:23   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             395.3
 Df Residuals:                     514   BIC:                             493.9
 Df Model:                          22                                         
@@ -212,8 +212,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.440
 Method:                 Least Squares   F-statistic:                     21.03
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.24e-56
-Time:                        20:48:45   Log-Likelihood:                -174.64
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.24e-56
+Time:                        21:22:23   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             393.3
 Df Residuals:                     515   BIC:                             487.6
 Df Model:                          21                                         
@@ -258,8 +258,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     22.12
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.84e-57
-Time:                        20:48:45   Log-Likelihood:                -174.65
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.84e-57
+Time:                        21:22:23   Log-Likelihood:                -174.65
 No. Observations:                 537   AIC:                             391.3
 Df Residuals:                     516   BIC:                             481.3
 Df Model:                          20                                         
@@ -303,8 +303,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.442
 Method:                 Least Squares   F-statistic:                     23.33
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.41e-57
-Time:                        20:48:45   Log-Likelihood:                -174.67
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.41e-57
+Time:                        21:22:23   Log-Likelihood:                -174.67
 No. Observations:                 537   AIC:                             389.3
 Df Residuals:                     517   BIC:                             475.1
 Df Model:                          19                                         
@@ -347,8 +347,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.443
 Method:                 Least Squares   F-statistic:                     24.67
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.88e-58
-Time:                        20:48:45   Log-Likelihood:                -174.70
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.88e-58
+Time:                        21:22:23   Log-Likelihood:                -174.70
 No. Observations:                 537   AIC:                             387.4
 Df Residuals:                     518   BIC:                             468.8
 Df Model:                          18                                         
@@ -390,8 +390,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.444
 Method:                 Least Squares   F-statistic:                     26.15
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.89e-59
-Time:                        20:48:45   Log-Likelihood:                -174.76
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.89e-59
+Time:                        21:22:23   Log-Likelihood:                -174.76
 No. Observations:                 537   AIC:                             385.5
 Df Residuals:                     519   BIC:                             462.7
 Df Model:                          17                                         
@@ -432,8 +432,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     27.82
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.22e-59
-Time:                        20:48:45   Log-Likelihood:                -174.88
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.22e-59
+Time:                        21:22:23   Log-Likelihood:                -174.88
 No. Observations:                 537   AIC:                             383.8
 Df Residuals:                     520   BIC:                             456.6
 Df Model:                          16                                         
@@ -473,8 +473,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     29.71
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.37e-60
-Time:                        20:48:45   Log-Likelihood:                -174.96
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.37e-60
+Time:                        21:22:23   Log-Likelihood:                -174.96
 No. Observations:                 537   AIC:                             381.9
 Df Residuals:                     521   BIC:                             450.5
 Df Model:                          15                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     31.84
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.97e-61
-Time:                        20:48:45   Log-Likelihood:                -175.16
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.97e-61
+Time:                        21:22:23   Log-Likelihood:                -175.16
 No. Observations:                 537   AIC:                             380.3
 Df Residuals:                     522   BIC:                             444.6
 Df Model:                          14                                         
@@ -552,8 +552,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.460
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     34.26
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.13e-61
-Time:                        20:48:45   Log-Likelihood:                -175.49
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.13e-61
+Time:                        21:22:23   Log-Likelihood:                -175.49
 No. Observations:                 537   AIC:                             379.0
 Df Residuals:                     523   BIC:                             439.0
 Df Model:                          13                                         
@@ -590,8 +590,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.459
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     37.05
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.86e-62
-Time:                        20:48:45   Log-Likelihood:                -175.97
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.86e-62
+Time:                        21:22:23   Log-Likelihood:                -175.97
 No. Observations:                 537   AIC:                             377.9
 Df Residuals:                     524   BIC:                             433.6
 Df Model:                          12                                         
@@ -627,8 +627,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.457
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     40.22
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           9.61e-63
-Time:                        20:48:45   Log-Likelihood:                -176.79
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           9.61e-63
+Time:                        21:22:23   Log-Likelihood:                -176.79
 No. Observations:                 537   AIC:                             377.6
 Df Residuals:                     525   BIC:                             429.0
 Df Model:                          11                                         
@@ -663,8 +663,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.456
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     44.13
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.39e-63
-Time:                        20:48:45   Log-Likelihood:                -177.34
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.39e-63
+Time:                        21:22:23   Log-Likelihood:                -177.34
 No. Observations:                 537   AIC:                             376.7
 Df Residuals:                     526   BIC:                             423.8
 Df Model:                          10                                         
@@ -698,8 +698,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.454
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     48.66
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.03e-63
-Time:                        20:48:45   Log-Likelihood:                -178.51
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.03e-63
+Time:                        21:22:23   Log-Likelihood:                -178.51
 No. Observations:                 537   AIC:                             377.0
 Df Residuals:                     527   BIC:                             419.9
 Df Model:                           9                                         
@@ -732,8 +732,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.448
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     61.43
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.16e-64
-Time:                        20:48:45   Log-Likelihood:                -181.17
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.16e-64
+Time:                        21:22:23   Log-Likelihood:                -181.17
 No. Observations:                 537   AIC:                             378.3
 Df Residuals:                     529   BIC:                             412.6
 Df Model:                           7                                         

--- a/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB69DD16-1471-4B8E-AF06-4C90A0E0CBBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F56A622-6511-4747-8233-32E2AC394E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23" sheetId="1" r:id="rId1"/>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.438
 Method:                 Least Squares   F-statistic:                     19.13
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.81e-55
-Time:                        21:22:23   Log-Likelihood:                -174.64
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           6.81e-55
+Time:                        19:07:28   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             397.3
 Df Residuals:                     513   BIC:                             500.1
 Df Model:                          23                                         
@@ -165,8 +165,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.439
 Method:                 Least Squares   F-statistic:                     20.04
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.50e-55
-Time:                        21:22:23   Log-Likelihood:                -174.64
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.50e-55
+Time:                        19:07:28   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             395.3
 Df Residuals:                     514   BIC:                             493.9
 Df Model:                          22                                         
@@ -212,8 +212,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.440
 Method:                 Least Squares   F-statistic:                     21.03
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.24e-56
-Time:                        21:22:23   Log-Likelihood:                -174.64
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           3.24e-56
+Time:                        19:07:28   Log-Likelihood:                -174.64
 No. Observations:                 537   AIC:                             393.3
 Df Residuals:                     515   BIC:                             487.6
 Df Model:                          21                                         
@@ -258,8 +258,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     22.12
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.84e-57
-Time:                        21:22:23   Log-Likelihood:                -174.65
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           6.84e-57
+Time:                        19:07:28   Log-Likelihood:                -174.65
 No. Observations:                 537   AIC:                             391.3
 Df Residuals:                     516   BIC:                             481.3
 Df Model:                          20                                         
@@ -303,8 +303,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.442
 Method:                 Least Squares   F-statistic:                     23.33
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.41e-57
-Time:                        21:22:23   Log-Likelihood:                -174.67
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.41e-57
+Time:                        19:07:28   Log-Likelihood:                -174.67
 No. Observations:                 537   AIC:                             389.3
 Df Residuals:                     517   BIC:                             475.1
 Df Model:                          19                                         
@@ -347,8 +347,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.462
 Model:                            OLS   Adj. R-squared:                  0.443
 Method:                 Least Squares   F-statistic:                     24.67
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.88e-58
-Time:                        21:22:23   Log-Likelihood:                -174.70
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.88e-58
+Time:                        19:07:28   Log-Likelihood:                -174.70
 No. Observations:                 537   AIC:                             387.4
 Df Residuals:                     518   BIC:                             468.8
 Df Model:                          18                                         
@@ -390,8 +390,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.444
 Method:                 Least Squares   F-statistic:                     26.15
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.89e-59
-Time:                        21:22:23   Log-Likelihood:                -174.76
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.89e-59
+Time:                        19:07:28   Log-Likelihood:                -174.76
 No. Observations:                 537   AIC:                             385.5
 Df Residuals:                     519   BIC:                             462.7
 Df Model:                          17                                         
@@ -432,8 +432,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     27.82
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.22e-59
-Time:                        21:22:23   Log-Likelihood:                -174.88
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.22e-59
+Time:                        19:07:28   Log-Likelihood:                -174.88
 No. Observations:                 537   AIC:                             383.8
 Df Residuals:                     520   BIC:                             456.6
 Df Model:                          16                                         
@@ -473,8 +473,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     29.71
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.37e-60
-Time:                        21:22:23   Log-Likelihood:                -174.96
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.37e-60
+Time:                        19:07:28   Log-Likelihood:                -174.96
 No. Observations:                 537   AIC:                             381.9
 Df Residuals:                     521   BIC:                             450.5
 Df Model:                          15                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.461
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     31.84
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.97e-61
-Time:                        21:22:23   Log-Likelihood:                -175.16
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           4.97e-61
+Time:                        19:07:28   Log-Likelihood:                -175.16
 No. Observations:                 537   AIC:                             380.3
 Df Residuals:                     522   BIC:                             444.6
 Df Model:                          14                                         
@@ -552,8 +552,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.460
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     34.26
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.13e-61
-Time:                        21:22:23   Log-Likelihood:                -175.49
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.13e-61
+Time:                        19:07:28   Log-Likelihood:                -175.49
 No. Observations:                 537   AIC:                             379.0
 Df Residuals:                     523   BIC:                             439.0
 Df Model:                          13                                         
@@ -590,8 +590,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.459
 Model:                            OLS   Adj. R-squared:                  0.447
 Method:                 Least Squares   F-statistic:                     37.05
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.86e-62
-Time:                        21:22:23   Log-Likelihood:                -175.97
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.86e-62
+Time:                        19:07:28   Log-Likelihood:                -175.97
 No. Observations:                 537   AIC:                             377.9
 Df Residuals:                     524   BIC:                             433.6
 Df Model:                          12                                         
@@ -627,8 +627,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.457
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     40.22
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           9.61e-63
-Time:                        21:22:23   Log-Likelihood:                -176.79
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           9.61e-63
+Time:                        19:07:28   Log-Likelihood:                -176.79
 No. Observations:                 537   AIC:                             377.6
 Df Residuals:                     525   BIC:                             429.0
 Df Model:                          11                                         
@@ -663,8 +663,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.456
 Model:                            OLS   Adj. R-squared:                  0.446
 Method:                 Least Squares   F-statistic:                     44.13
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.39e-63
-Time:                        21:22:23   Log-Likelihood:                -177.34
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.39e-63
+Time:                        19:07:28   Log-Likelihood:                -177.34
 No. Observations:                 537   AIC:                             376.7
 Df Residuals:                     526   BIC:                             423.8
 Df Model:                          10                                         
@@ -698,8 +698,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.454
 Model:                            OLS   Adj. R-squared:                  0.445
 Method:                 Least Squares   F-statistic:                     48.66
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.03e-63
-Time:                        21:22:23   Log-Likelihood:                -178.51
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.03e-63
+Time:                        19:07:28   Log-Likelihood:                -178.51
 No. Observations:                 537   AIC:                             377.0
 Df Residuals:                     527   BIC:                             419.9
 Df Model:                           9                                         
@@ -732,8 +732,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.448
 Model:                            OLS   Adj. R-squared:                  0.441
 Method:                 Least Squares   F-statistic:                     61.43
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.16e-64
-Time:                        21:22:23   Log-Likelihood:                -181.17
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.16e-64
+Time:                        19:07:28   Log-Likelihood:                -181.17
 No. Observations:                 537   AIC:                             378.3
 Df Residuals:                     529   BIC:                             412.6
 Df Model:                           7                                         
